--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Xchange\Studis\Apath\materials_DAdapter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Xchange\Studis\Apath\HiWi Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885A2BDD-666B-49E9-8E68-9EF6CC2EA5F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" activeTab="3" xr2:uid="{A09BD884-C98B-43F9-9DC8-F725301D0C06}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8148"/>
   </bookViews>
   <sheets>
     <sheet name="parameter_1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="limits" sheetId="3" r:id="rId3"/>
     <sheet name="commodity_set" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Islam, Md Anik</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{67989CBA-68DC-4B2F-90FB-D84FC1957A9B}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{82154FC1-16DE-49C4-9B98-4679F2335D32}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{B50414F5-CA2D-48F2-8AF4-FECDD22277A2}">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{19831741-15CD-41D2-ACC7-17BA48694E05}">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,12 +134,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{2DD65D32-D364-4B52-BB27-DD0820D06F3F}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,9 +359,6 @@
     <t>Kt</t>
   </si>
   <si>
-    <t>EFF, INPUT</t>
-  </si>
-  <si>
     <t>CommName</t>
   </si>
   <si>
@@ -409,12 +405,15 @@
   </si>
   <si>
     <t>iip_steel_iron_pellets</t>
+  </si>
+  <si>
+    <t>ACT_EFF, INPUT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -579,8 +578,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{BD0A9BEF-A1DA-4AA5-AA35-306077EC9CA8}"/>
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -994,20 +993,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705CBF11-FC47-4EFF-B4EB-E06D951AEC12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="101.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="97.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="97.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1151,7 +1150,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -1247,26 +1246,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3455ED-A176-4339-A34C-F6614BB99FCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8707439-1B22-4F97-9B49-1D1E5A21869F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1309,119 +1308,119 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE6D864-6345-478A-AB98-7D9B8AFDD462}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="31.05" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="31" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
